--- a/SiteDetailerApp/websiteDetailer.xlsx
+++ b/SiteDetailerApp/websiteDetailer.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>ipAddress</t>
   </si>
@@ -31,25 +31,31 @@
   <si>
     <t>reference</t>
   </si>
+  <si>
+    <t>172.217.166.238</t>
+  </si>
+  <si>
+    <t>https</t>
+  </si>
+  <si>
+    <t>google.com</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="0.65"/>
-      <b val="true"/>
-      <color indexed="10"/>
     </font>
   </fonts>
   <fills count="2">
@@ -72,66 +78,63 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="0.0" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="0.0" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="0.0" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="0.0" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="0.0" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="0.0" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="16.08203125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="8.609375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.4296875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="4.85546875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="6.203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="9.70703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="1">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="1">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="1">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="1">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2"/>
-    </row>
-    <row r="3">
-      <c r="B3"/>
-    </row>
-    <row r="4">
-      <c r="C4"/>
-    </row>
-    <row r="5">
-      <c r="D5"/>
-    </row>
-    <row r="6">
-      <c r="E6"/>
-    </row>
-    <row r="7">
-      <c r="F7"/>
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2"/>
+      <c r="F2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
